--- a/data/trans_bre/P15A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,68</t>
+          <t>-2,34; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,48</t>
+          <t>-3,51; 2,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,89</t>
+          <t>-2,19; 1,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,02</t>
+          <t>-0,03; 2,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,27; 159,92</t>
+          <t>-68,08; 153,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-76,71; 144,8</t>
+          <t>-75,07; 136,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-73,51; 185,31</t>
+          <t>-72,68; 174,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 620,67</t>
+          <t>-9,43; 637,85</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,01</t>
+          <t>-4,79; 0,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,42</t>
+          <t>-3,87; 0,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,21</t>
+          <t>-0,5; 4,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,29</t>
+          <t>-3,78; 0,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,01; 15,6</t>
+          <t>-89,54; 13,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-92,98; 83,99</t>
+          <t>-92,33; 51,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 533,95</t>
+          <t>-45,3; 519,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,63; 35,64</t>
+          <t>-84,63; 42,57</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,36</t>
+          <t>-5,06; 1,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,29</t>
+          <t>-2,57; 2,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,67</t>
+          <t>-0,83; 5,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,88</t>
+          <t>-0,82; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 46,5</t>
+          <t>-82,79; 47,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,04; 153,15</t>
+          <t>-75,59; 144,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 559,07</t>
+          <t>-48,24; 488,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 543,81</t>
+          <t>-31,03; 526,45</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,05</t>
+          <t>-1,26; 2,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,59</t>
+          <t>-2,4; 0,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,17</t>
+          <t>-2,2; 0,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,03</t>
+          <t>-1,94; 0,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 84,52</t>
+          <t>-35,97; 99,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,13; 28,25</t>
+          <t>-63,31; 31,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 16,54</t>
+          <t>-78,78; 13,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,34; 61,14</t>
+          <t>-62,3; 52,94</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,65</t>
+          <t>-2,26; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,76</t>
+          <t>-1,26; 2,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,99</t>
+          <t>-2,76; 1,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,93</t>
+          <t>-3,31; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 122,87</t>
+          <t>-43,33; 139,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 164,03</t>
+          <t>-34,96; 203,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 35,82</t>
+          <t>-56,58; 53,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,89; 89,47</t>
+          <t>-56,49; 97,61</t>
         </is>
       </c>
     </row>
@@ -1168,37 +1168,37 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -0,62</t>
+          <t>-6,54; -0,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,92</t>
+          <t>-1,7; 2,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,29</t>
+          <t>-5,89; 0,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,12</t>
+          <t>-1,81; 3,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,7; -17,45</t>
+          <t>-78,37; -20,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 300,72</t>
+          <t>-39,55; 218,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,26; 12,07</t>
+          <t>-73,34; 7,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; -0,07</t>
+          <t>-1,87; -0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,73</t>
+          <t>-0,93; 0,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,61</t>
+          <t>-0,91; 0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,23</t>
+          <t>-0,49; 1,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -2,13</t>
+          <t>-44,84; -2,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 29,41</t>
+          <t>-28,07; 27,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 26,86</t>
+          <t>-30,61; 26,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 73,06</t>
+          <t>-18,39; 76,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
